--- a/Reports/Template/Template.xlsx
+++ b/Reports/Template/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documentos\UiPath\Demo Procesamiento Facturas OCR\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Respaldo\Disco Seagate\Documentos\UiPath\Demo Procesamiento Facturas OCR\Reports\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BF77DB-7373-4E89-81F7-31D66E08F5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E09268-0A66-405B-9148-968CDF48C95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BB7D552-E851-4136-A94A-0FA013AF4CBE}"/>
+    <workbookView xWindow="0" yWindow="795" windowWidth="16305" windowHeight="11295" xr2:uid="{7BB7D552-E851-4136-A94A-0FA013AF4CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Invoice</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Currency</t>
   </si>
 </sst>
 </file>
@@ -414,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D558FB-25C4-464F-A994-EA1D67943DCD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,6 +438,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
